--- a/admin/src/main/resources/statics/运营数据模板.xlsx
+++ b/admin/src/main/resources/statics/运营数据模板.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chinda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\learn-01\admin-parent\admin\src\main\resources\statics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC27786-1FD1-4B4B-A053-725CC4ABCBE0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="运营数据" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>公司</t>
   </si>
@@ -74,13 +73,17 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -448,18 +451,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -468,10 +471,10 @@
     <col min="13" max="14" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="14.6640625" style="2"/>
+    <col min="19" max="16384" width="14.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,6 +528,9 @@
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/admin/src/main/resources/statics/运营数据模板.xlsx
+++ b/admin/src/main/resources/statics/运营数据模板.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\learn-01\admin-parent\admin\src\main\resources\statics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\admin-parent\admin\src\main\resources\statics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07241B9F-3AE1-49C7-AEFC-701E72053D3B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="运营数据" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>公司</t>
   </si>
@@ -76,14 +77,22 @@
   </si>
   <si>
     <t>月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -128,7 +137,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -136,6 +145,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,18 +463,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="14.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -471,10 +483,10 @@
     <col min="13" max="14" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="14.625" style="2"/>
+    <col min="19" max="16384" width="14.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="17.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,55 +494,61 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
